--- a/TestCourses/dataExcel/login.xlsx
+++ b/TestCourses/dataExcel/login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7170" activeTab="4"/>
+    <workbookView windowWidth="20490" windowHeight="7170" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="incorrect" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
     <t>QA</t>
   </si>
   <si>
-    <t>Newfoundland</t>
+    <t>Athens</t>
   </si>
   <si>
     <t>emad</t>
@@ -148,7 +148,7 @@
     <t>developer</t>
   </si>
   <si>
-    <t>New Caledonia</t>
+    <t>Adelaide</t>
   </si>
   <si>
     <t>wesam</t>
@@ -163,7 +163,7 @@
     <t>IT</t>
   </si>
   <si>
-    <t>Muscat</t>
+    <t>Abu Dhabi</t>
   </si>
 </sst>
 </file>
@@ -1353,8 +1353,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="30.7142857142857" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.7142857142857" style="4" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="30.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="12.7142857142857" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" spans="1:2">
@@ -1543,7 +1543,7 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1603,18 +1603,18 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="49.5714285714286" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.5714285714286" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.8571428571429" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.85714285714286" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.8571428571429" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.8571428571429" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="49.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="44.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="10.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="9.85714285714286" customWidth="1"/>
+    <col min="5" max="5" width="17.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="19.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/TestCourses/dataExcel/login.xlsx
+++ b/TestCourses/dataExcel/login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7170" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="20490" windowHeight="7620" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="incorrect" sheetId="1" r:id="rId1"/>
@@ -1494,7 +1494,7 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1521,7 +1521,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
@@ -1603,7 +1603,7 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
